--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20242.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>Mat</t>
   </si>
@@ -82,184 +82,118 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>OREA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
     <t>MAZA</t>
   </si>
   <si>
-    <t>PELLICO</t>
-  </si>
-  <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>CESMA</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>PICHARDO</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
   </si>
   <si>
     <t>RIVERA</t>
   </si>
   <si>
-    <t>CARRERA</t>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ZOPILLAXTLE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RANGEL</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>TLAXCALTECA</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>XICALHUA</t>
-  </si>
-  <si>
-    <t>ANASTACIO</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>LIBRADO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SOTO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>AMISADAY</t>
+  </si>
+  <si>
+    <t>LUZ ARIANA</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>MARIA MICHELLE</t>
+  </si>
+  <si>
+    <t>MARY CELESTE</t>
+  </si>
+  <si>
+    <t>SANDY CAMILA</t>
   </si>
   <si>
     <t>KEVIN JESUS</t>
   </si>
   <si>
-    <t>BENJAMIN</t>
-  </si>
-  <si>
-    <t>ARANZI</t>
-  </si>
-  <si>
-    <t>YURANI</t>
-  </si>
-  <si>
-    <t>JANNIHA YUVIETH</t>
-  </si>
-  <si>
-    <t>JIMENA</t>
-  </si>
-  <si>
-    <t>ANDY ARELY</t>
+    <t>GAEL ARMANDO</t>
+  </si>
+  <si>
+    <t>BETZY AYELEN</t>
   </si>
   <si>
     <t>KEVIN RAUL</t>
   </si>
   <si>
-    <t>LIA SARED</t>
-  </si>
-  <si>
-    <t>ALEJANDRA</t>
-  </si>
-  <si>
-    <t>JHOCELIN VALENTINA</t>
-  </si>
-  <si>
-    <t>LEONEL</t>
-  </si>
-  <si>
-    <t>MARIA ESTELA</t>
-  </si>
-  <si>
-    <t>CRISTIAN LEOBARDO</t>
-  </si>
-  <si>
-    <t>ANA LAURA</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>ALLYSON AILANI</t>
-  </si>
-  <si>
-    <t>IRAIS</t>
-  </si>
-  <si>
-    <t>KRISTEN DAMARIS</t>
-  </si>
-  <si>
-    <t>SANDRA PAOLA</t>
-  </si>
-  <si>
-    <t>OCTAVIO</t>
-  </si>
-  <si>
-    <t>BRAYAN JOSUE</t>
-  </si>
-  <si>
     <t>EDUARDO</t>
   </si>
   <si>
-    <t>DIEGO ANTONIO</t>
+    <t>DANA PAOLA</t>
   </si>
   <si>
     <t>JESUS ALEJANDRO</t>
@@ -663,22 +597,16 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>76.67</v>
-      </c>
-      <c r="H2">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -835,18 +763,15 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -861,16 +786,19 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>66.67</v>
+      </c>
+      <c r="H3">
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -884,16 +812,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>84.62</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -907,16 +838,19 @@
         <v>25</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -930,16 +864,19 @@
         <v>24</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -992,18 +929,15 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -1021,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="H3">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1056,7 +990,7 @@
         <v>84.62</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1073,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1108,7 +1042,7 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1153,19 +1087,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920298</v>
+        <v>24330051920182</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -1176,16 +1110,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920298</v>
+        <v>24330051920201</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1199,22 +1133,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920188</v>
+        <v>21330051920053</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1222,22 +1156,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920206</v>
+        <v>21330051920242</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1245,16 +1179,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920206</v>
+        <v>24330051920400</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1263,24 +1197,24 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920285</v>
+        <v>23330051920351</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1291,16 +1225,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920285</v>
+        <v>24330051920213</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1314,19 +1248,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920181</v>
+        <v>23330051920298</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1337,19 +1271,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920388</v>
+        <v>24330051920277</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1360,19 +1294,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920316</v>
+        <v>24330051920194</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1383,39 +1317,39 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>24330051920028</v>
+        <v>22330051920425</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>22330051920425</v>
+        <v>21330051920359</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1424,397 +1358,52 @@
         <v>13</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>24330051920170</v>
+        <v>22330051920071</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>24330051920174</v>
+        <v>22330051920317</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>24330051920179</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>24330051920391</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>23330051920076</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>22330051920229</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>24330051920168</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>24330051920171</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>24330051920199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>24330051920185</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>24330051920198</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24330051920184</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>24330051920190</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>24330051920402</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>21330051920359</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>21330051920237</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>22330051920317</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20242.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
   <si>
     <t>Mat</t>
   </si>
@@ -85,33 +85,36 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
     <t>SOTO</t>
   </si>
   <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>MAZA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>OREA</t>
   </si>
   <si>
     <t>PALMA</t>
   </si>
   <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>MAZA</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>RIVERA</t>
   </si>
   <si>
@@ -124,67 +127,70 @@
     <t>DE LA CRUZ</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>ZOPILLAXTLE</t>
   </si>
   <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
     <t>RANGEL</t>
   </si>
   <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
     <t>TLAXCALTECA</t>
   </si>
   <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
     <t>AMISADAY</t>
   </si>
   <si>
+    <t>AYLIN ABIGAIL</t>
+  </si>
+  <si>
     <t>LUZ ARIANA</t>
   </si>
   <si>
+    <t>MARIA MICHELLE</t>
+  </si>
+  <si>
+    <t>MARY CELESTE</t>
+  </si>
+  <si>
+    <t>SANDY CAMILA</t>
+  </si>
+  <si>
+    <t>KEVIN JESUS</t>
+  </si>
+  <si>
+    <t>BETZY AYELEN</t>
+  </si>
+  <si>
     <t>JOSE MANUEL</t>
   </si>
   <si>
     <t>ROBERTO</t>
   </si>
   <si>
-    <t>MARIA MICHELLE</t>
-  </si>
-  <si>
-    <t>MARY CELESTE</t>
-  </si>
-  <si>
-    <t>SANDY CAMILA</t>
-  </si>
-  <si>
-    <t>KEVIN JESUS</t>
-  </si>
-  <si>
     <t>GAEL ARMANDO</t>
-  </si>
-  <si>
-    <t>BETZY AYELEN</t>
   </si>
   <si>
     <t>KEVIN RAUL</t>
@@ -1052,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1093,10 +1099,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1110,16 +1116,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920201</v>
+        <v>24330051920187</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1133,22 +1139,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920053</v>
+        <v>24330051920201</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1156,39 +1162,39 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920242</v>
+        <v>24330051920400</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920400</v>
+        <v>23330051920351</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1202,16 +1208,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920351</v>
+        <v>24330051920213</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1225,16 +1231,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920213</v>
+        <v>23330051920298</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1248,16 +1254,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>23330051920298</v>
+        <v>24330051920194</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1271,22 +1277,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920277</v>
+        <v>21330051920053</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1294,22 +1300,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920194</v>
+        <v>21330051920242</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1317,22 +1323,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>22330051920425</v>
+        <v>24330051920277</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1340,16 +1346,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920359</v>
+        <v>22330051920425</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1358,21 +1364,21 @@
         <v>13</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>22330051920071</v>
+        <v>21330051920359</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1386,16 +1392,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>22330051920317</v>
+        <v>22330051920071</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1404,6 +1410,29 @@
         <v>13</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>22330051920317</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
     </row>
